--- a/biology/Zoologie/Elosuchus/Elosuchus.xlsx
+++ b/biology/Zoologie/Elosuchus/Elosuchus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Elosuchus est un genre fossile de crocodyliformes néosuchiens qui vivait au Crétacé inférieur dans l'actuelle Afrique du Nord (Maroc, Algérie et au Niger).
@@ -512,9 +524,11 @@
           <t>Description et taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elosuchus avait un museau allongé semblable à celui d'un gavial. L'animal mesurait 4 mètres de long et était probablement entièrement aquatique. L'espèce type, E. cherifiensis d'Algérie et du Maroc, a été décrite à l'origine comme une espèce de Thoracosaurus par R. Lavocat[1] mais a été reconnue comme un genre distinct de Thoracosaurus par de France de Broin en 2002. Elosuchus felixi, décrit dans la formation d'Echkar au Niger, a été renommé Fortignathus en 2016 et est un parent de Dyrosaurus[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elosuchus avait un museau allongé semblable à celui d'un gavial. L'animal mesurait 4 mètres de long et était probablement entièrement aquatique. L'espèce type, E. cherifiensis d'Algérie et du Maroc, a été décrite à l'origine comme une espèce de Thoracosaurus par R. Lavocat mais a été reconnue comme un genre distinct de Thoracosaurus par de France de Broin en 2002. Elosuchus felixi, décrit dans la formation d'Echkar au Niger, a été renommé Fortignathus en 2016 et est un parent de Dyrosaurus,.
 </t>
         </is>
       </c>
@@ -543,11 +557,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Broin (2002) a créé  la famille des Elosuchidae pour contenir Elosuchus et le genre Stolokrosuchus du Niger[2]. Cependant, les analyses phylogénétiques postérieures ont généralement montré que Stolokrosuchus est l’un des néosuchiens les plus basaux, mais n’est apparenté qu’à distance à Elosuchus[4],[5],[6],[7]. Certaines analyses montrent que les Pholidosauridae sont monophylétiques et incluent le genre Elosuchus[6] tandis que d’autres placent Elosuchus avec des taxons comme Sarcosuchus dans un clade en groupe frère de l'ancêtre commun des Dyrosauridae et des Pholidosauridae[5],[7].
-Cladogramme Pholidosauridae
-Le cladogramme suivant de Daniel Fortier et ses collègues en 2011[8] montre la position des espèces au sein de la famille des Pholidosauridae :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Broin (2002) a créé  la famille des Elosuchidae pour contenir Elosuchus et le genre Stolokrosuchus du Niger. Cependant, les analyses phylogénétiques postérieures ont généralement montré que Stolokrosuchus est l’un des néosuchiens les plus basaux, mais n’est apparenté qu’à distance à Elosuchus. Certaines analyses montrent que les Pholidosauridae sont monophylétiques et incluent le genre Elosuchus tandis que d’autres placent Elosuchus avec des taxons comme Sarcosuchus dans un clade en groupe frère de l'ancêtre commun des Dyrosauridae et des Pholidosauridae,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elosuchus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elosuchus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cladogramme Pholidosauridae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant de Daniel Fortier et ses collègues en 2011 montre la position des espèces au sein de la famille des Pholidosauridae :
 </t>
         </is>
       </c>
